--- a/Actividades/Proy01008/Duraciones/Tercera entrega pert duraciones.xlsx
+++ b/Actividades/Proy01008/Duraciones/Tercera entrega pert duraciones.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\HUB\ProyectoFinal2019-\Actividades\Proy01008\Duraciones\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DD9E4-B610-41F1-9C68-5E957280BEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1290" windowWidth="11535" windowHeight="11760"/>
+    <workbookView xWindow="18420" yWindow="0" windowWidth="10395" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,11 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,17 +584,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
